--- a/dist/document/dest/2020/10/products/Zantagel.xlsx
+++ b/dist/document/dest/2020/10/products/Zantagel.xlsx
@@ -421,11 +421,17 @@
       <c r="A2" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
+      <c r="B2" t="str">
+        <v>Nguyễn Thị Hồng</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Anh</v>
+      </c>
       <c r="D2" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E2" s="1">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -433,16 +439,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B3" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Phan Nguyên Thiên</v>
       </c>
       <c r="C3" t="str">
-        <v>Anh</v>
+        <v>Châu</v>
       </c>
       <c r="D3" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E3" s="1">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +456,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B4" t="str">
-        <v>Phan Nguyên Thiên</v>
+        <v>Nguyễn Văn</v>
       </c>
       <c r="C4" t="str">
-        <v>Châu</v>
+        <v>Hiền</v>
       </c>
       <c r="D4" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -467,16 +473,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn Văn</v>
+        <v>Nguyễn Thị Ánh</v>
       </c>
       <c r="C5" t="str">
-        <v>Hiền</v>
+        <v>Hồng</v>
       </c>
       <c r="D5" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E5" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +490,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B6" t="str">
-        <v>Nguyễn Thị Ánh</v>
+        <v>Bùi Bỉnh</v>
       </c>
       <c r="C6" t="str">
-        <v>Hồng</v>
+        <v>Huân</v>
       </c>
       <c r="D6" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7">
@@ -501,16 +507,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B7" t="str">
-        <v>Bùi Bỉnh</v>
+        <v>Bùi Thị Vân</v>
       </c>
       <c r="C7" t="str">
-        <v>Huân</v>
+        <v>Hương</v>
       </c>
       <c r="D7" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E7" s="1">
-        <v>1080</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -518,16 +524,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B8" t="str">
-        <v>Bùi Thị Vân</v>
+        <v>Vũ Thị Thanh</v>
       </c>
       <c r="C8" t="str">
-        <v>Hương</v>
+        <v>Huyền</v>
       </c>
       <c r="D8" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
@@ -535,16 +541,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B9" t="str">
-        <v>Vũ Thị Thanh</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C9" t="str">
-        <v>Huyền</v>
+        <v>Kiên</v>
       </c>
       <c r="D9" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E9" s="1">
-        <v>408</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10">
@@ -552,16 +558,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B10" t="str">
-        <v>Phùng Trọng</v>
+        <v>Lý Thanh</v>
       </c>
       <c r="C10" t="str">
-        <v>Kiên</v>
+        <v>Lãm</v>
       </c>
       <c r="D10" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E10" s="1">
-        <v>720</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="11">
@@ -569,16 +575,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B11" t="str">
-        <v>Lý Thanh</v>
+        <v>Huỳnh Trác</v>
       </c>
       <c r="C11" t="str">
-        <v>Lãm</v>
+        <v>Luân</v>
       </c>
       <c r="D11" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E11" s="1">
-        <v>1094</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -586,16 +592,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B12" t="str">
-        <v>Huỳnh Trác</v>
+        <v>Nguyễn Thị</v>
       </c>
       <c r="C12" t="str">
-        <v>Luân</v>
+        <v>Lý</v>
       </c>
       <c r="D12" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E12" s="1">
-        <v>90</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
@@ -603,16 +609,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B13" t="str">
-        <v>Nguyễn Thị</v>
+        <v>Tôn Nữ Sao</v>
       </c>
       <c r="C13" t="str">
-        <v>Lý</v>
+        <v>Mai</v>
       </c>
       <c r="D13" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E13" s="1">
-        <v>356</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="14">
@@ -620,16 +626,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B14" t="str">
-        <v>Tôn Nữ Sao</v>
+        <v>Nguyễn Thuý</v>
       </c>
       <c r="C14" t="str">
-        <v>Mai</v>
+        <v>Nga</v>
       </c>
       <c r="D14" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E14" s="1">
-        <v>2754</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15">
@@ -637,16 +643,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B15" t="str">
-        <v>Nguyễn Thuý</v>
+        <v>Lý Văn</v>
       </c>
       <c r="C15" t="str">
-        <v>Nga</v>
+        <v>Phái</v>
       </c>
       <c r="D15" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E15" s="1">
-        <v>316</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -654,16 +660,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B16" t="str">
-        <v>Lý Văn</v>
+        <v>Lê Đình Vĩnh</v>
       </c>
       <c r="C16" t="str">
-        <v>Phái</v>
+        <v>Phúc</v>
       </c>
       <c r="D16" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E16" s="1">
-        <v>70</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="17">
@@ -671,16 +677,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B17" t="str">
-        <v>Lê Đình Vĩnh</v>
+        <v>Lê Trọng</v>
       </c>
       <c r="C17" t="str">
-        <v>Phúc</v>
+        <v>Quý</v>
       </c>
       <c r="D17" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E17" s="1">
-        <v>1751</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="18">
@@ -688,16 +694,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B18" t="str">
-        <v>Lê Trọng</v>
+        <v>Nguyễn Đăng</v>
       </c>
       <c r="C18" t="str">
-        <v>Quý</v>
+        <v>Sảng</v>
       </c>
       <c r="D18" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E18" s="1">
-        <v>4411</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="19">
@@ -705,16 +711,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B19" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Huỳnh Lộc</v>
       </c>
       <c r="C19" t="str">
-        <v>Sảng</v>
+        <v>Sơn</v>
       </c>
       <c r="D19" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E19" s="1">
-        <v>2230</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20">
@@ -722,16 +728,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B20" t="str">
-        <v>Huỳnh Lộc</v>
+        <v>Trương Công</v>
       </c>
       <c r="C20" t="str">
-        <v>Sơn</v>
+        <v>Thành</v>
       </c>
       <c r="D20" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E20" s="1">
-        <v>828</v>
+        <v>15989</v>
       </c>
     </row>
     <row r="21">
@@ -739,16 +745,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B21" t="str">
-        <v>Trương Công</v>
+        <v>Đặng Bữu</v>
       </c>
       <c r="C21" t="str">
-        <v>Thành</v>
+        <v>Thất</v>
       </c>
       <c r="D21" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E21" s="1">
-        <v>15989</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22">
@@ -756,16 +762,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B22" t="str">
-        <v>Đặng Bữu</v>
+        <v>Nguyễn Thị Kim</v>
       </c>
       <c r="C22" t="str">
-        <v>Thất</v>
+        <v>Thuý</v>
       </c>
       <c r="D22" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E22" s="1">
-        <v>904</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -773,16 +779,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B23" t="str">
-        <v>Nguyễn Thị Kim</v>
+        <v>Lê Đình</v>
       </c>
       <c r="C23" t="str">
-        <v>Thuý</v>
+        <v>Tín</v>
       </c>
       <c r="D23" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E23" s="1">
-        <v>60</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -790,16 +796,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B24" t="str">
-        <v>Lê Đình</v>
+        <v>Huỳnh Thắng</v>
       </c>
       <c r="C24" t="str">
-        <v>Tín</v>
+        <v>Toàn</v>
       </c>
       <c r="D24" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E24" s="1">
-        <v>229</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -807,16 +813,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B25" t="str">
-        <v>Huỳnh Thắng</v>
+        <v>Nguyễn Thị Ngọc</v>
       </c>
       <c r="C25" t="str">
-        <v>Toàn</v>
+        <v>Trâm</v>
       </c>
       <c r="D25" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E25" s="1">
-        <v>300</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -824,16 +830,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B26" t="str">
-        <v>Nguyễn Thị Ngọc</v>
+        <v>Phạm Huỳnh Bảo</v>
       </c>
       <c r="C26" t="str">
-        <v>Trâm</v>
+        <v>Trân</v>
       </c>
       <c r="D26" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E26" s="1">
-        <v>165</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -841,16 +847,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B27" t="str">
-        <v>Phạm Huỳnh Bảo</v>
+        <v>Lê Hữu Quỳnh</v>
       </c>
       <c r="C27" t="str">
-        <v>Trân</v>
+        <v>Trang</v>
       </c>
       <c r="D27" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -858,33 +864,27 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B28" t="str">
-        <v>Lê Hữu Quỳnh</v>
+        <v>Phan Xuân</v>
       </c>
       <c r="C28" t="str">
-        <v>Trang</v>
+        <v>Trung</v>
       </c>
       <c r="D28" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E28" s="1">
-        <v>88</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
-      <c r="B29" t="str">
-        <v>Phan Xuân</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Trung</v>
-      </c>
       <c r="D29" t="str">
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="E29" s="1">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">

--- a/dist/document/dest/2020/10/products/Zantagel.xlsx
+++ b/dist/document/dest/2020/10/products/Zantagel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="69">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC ZANTAGEL</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,28 +37,43 @@
     <t>SL</t>
   </si>
   <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hồng</t>
   </si>
   <si>
     <t>Anh</t>
   </si>
   <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
     <t>Phan Nguyên Thiên</t>
   </si>
   <si>
     <t>Châu</t>
   </si>
   <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>Hiền</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ánh</t>
-  </si>
-  <si>
-    <t>Hồng</t>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>Diễm</t>
   </si>
   <si>
     <t>Bùi Bỉnh</t>
@@ -67,10 +82,10 @@
     <t>Huân</t>
   </si>
   <si>
-    <t>Bùi Thị Vân</t>
-  </si>
-  <si>
-    <t>Hương</t>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
   </si>
   <si>
     <t>Vũ Thị Thanh</t>
@@ -645,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E113"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -705,12 +720,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -718,16 +737,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="10">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,16 +771,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -769,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -786,16 +805,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10">
-        <v>1080</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -803,16 +822,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E12" s="10">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,16 +839,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="10">
-        <v>408</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -837,16 +856,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10">
-        <v>720</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -854,16 +873,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E15" s="10">
-        <v>1094</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,16 +890,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10">
-        <v>356</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -905,16 +924,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E18" s="10">
-        <v>2754</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -922,16 +941,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10">
-        <v>316</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -942,13 +961,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E20" s="10">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -956,16 +975,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10">
-        <v>1751</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -973,16 +992,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E22" s="10">
-        <v>4411</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -990,16 +1009,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10">
-        <v>2230</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1007,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E24" s="10">
-        <v>828</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,16 +1043,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E25" s="10">
-        <v>15989</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1041,16 +1060,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10">
-        <v>904</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1058,16 +1077,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E27" s="10">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1075,16 +1094,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E28" s="10">
-        <v>229</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1092,16 +1111,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E29" s="10">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1109,16 +1128,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E30" s="10">
-        <v>165</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1126,16 +1145,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E31" s="10">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1143,16 +1162,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E32" s="10">
-        <v>88</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,43 +1179,1352 @@
         <v>28</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="10">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="10">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="10">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="10">
         <v>60</v>
       </c>
-      <c r="D33" s="9" t="s">
+    </row>
+    <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="10">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>53</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>54</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>55</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>56</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>57</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>58</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>61</v>
       </c>
-      <c r="E33" s="10">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="10">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>69</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>70</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="10">
         <v>300</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>71</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>72</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>74</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>75</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>76</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>77</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="10">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>78</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="10">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>79</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="10">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>80</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="10">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>81</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E86" s="10">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="87" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>82</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>83</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>84</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>85</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>86</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>87</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="10">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>88</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>89</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>90</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>91</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>92</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>93</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>94</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E99" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>95</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>96</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>97</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>98</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>99</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>100</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>101</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>102</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="11">
-        <v>34709</v>
-      </c>
-    </row>
-    <row r="35" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="E107" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>103</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
+      <c r="D108" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>104</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>105</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="11">
+        <v>38890</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A111:D111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
